--- a/data/out/tb_euro_fifa.xlsx
+++ b/data/out/tb_euro_fifa.xlsx
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1216,13 +1216,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1236,23 +1236,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1333,16 +1333,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1363,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1516,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1876,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1906,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>7</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2376,20 +2376,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>4</v>
@@ -2406,14 +2406,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -2436,23 +2436,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2536,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2616,11 +2616,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2646,20 +2646,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
@@ -2683,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>3</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -3126,11 +3126,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -3256,13 +3256,13 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -3283,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3496,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -3516,20 +3516,20 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -4176,23 +4176,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -4206,23 +4206,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -4246,13 +4246,13 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4453,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -4846,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -4876,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -4903,16 +4903,16 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -4963,16 +4963,16 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
         <v>3</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -4993,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -5616,23 +5616,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -5646,23 +5646,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="n">
         <v>2</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">

--- a/data/out/tb_euro_fifa.xlsx
+++ b/data/out/tb_euro_fifa.xlsx
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1216,13 +1216,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1236,23 +1236,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1333,16 +1333,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1363,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1516,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1876,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1906,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>7</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2376,20 +2376,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>4</v>
@@ -2406,14 +2406,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2436,23 +2436,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2536,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2616,11 +2616,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2646,20 +2646,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
@@ -2683,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>3</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
@@ -3126,11 +3126,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3256,13 +3256,13 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3283,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3496,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3516,20 +3516,20 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -4176,23 +4176,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4206,23 +4206,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -4246,13 +4246,13 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4453,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4846,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4876,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4903,16 +4903,16 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
         <v>2</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -4993,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -5616,23 +5616,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -5646,23 +5646,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
         <v>2</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">

--- a/data/out/tb_euro_fifa.xlsx
+++ b/data/out/tb_euro_fifa.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -646,13 +646,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -796,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -886,13 +886,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1006,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1249,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1336,13 +1336,13 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1699,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1756,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1876,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1966,13 +1966,13 @@
         <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2119,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2146,13 +2146,13 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2326,13 +2326,13 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2479,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2536,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2656,13 +2656,13 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -2689,10 +2689,10 @@
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -2839,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2899,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3016,13 +3016,13 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3169,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3256,13 +3256,13 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3376,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3463,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -3529,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3649,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3886,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -4009,10 +4009,10 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -4129,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -4156,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -4246,13 +4246,13 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4459,10 +4459,10 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -4516,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4576,13 +4576,13 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4639,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -4696,13 +4696,13 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -4816,13 +4816,13 @@
         <v>2</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4879,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -4936,13 +4936,13 @@
         <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
       </c>
       <c r="H150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
         <v>3</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -4999,10 +4999,10 @@
         <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -5089,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -5116,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -5209,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -5296,13 +5296,13 @@
         <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" t="n">
         <v>2</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -5386,13 +5386,13 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E167" t="n">
         <v>2</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -5479,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -5566,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -5599,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -5689,10 +5689,10 @@
         <v>2</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -5716,13 +5716,13 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/tb_euro_fifa.xlsx
+++ b/data/out/tb_euro_fifa.xlsx
@@ -4686,23 +4686,23 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4716,23 +4716,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
